--- a/XLS/refinedkeywords_metaclasses_ready.xlsx
+++ b/XLS/refinedkeywords_metaclasses_ready.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6D81C-A801-4818-B064-1C78ED9AA7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFBFC7-0CF0-49D3-B80D-BAE4A9509881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,9 +2607,6 @@
     <t>anatomy</t>
   </si>
   <si>
-    <t>mathematics</t>
-  </si>
-  <si>
     <t>physics</t>
   </si>
   <si>
@@ -2617,6 +2614,9 @@
   </si>
   <si>
     <t>psychology and sociology</t>
+  </si>
+  <si>
+    <t>mathematics and statistics</t>
   </si>
 </sst>
 </file>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F4740-3741-4244-AD95-EAB09C234922}">
   <dimension ref="A1:B856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
-      <selection activeCell="A856" sqref="A856:XFD856"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415:B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6212,7 +6212,7 @@
         <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -6220,7 +6220,7 @@
         <v>626</v>
       </c>
       <c r="B416" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -6228,7 +6228,7 @@
         <v>802</v>
       </c>
       <c r="B417" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +6236,7 @@
         <v>731</v>
       </c>
       <c r="B418" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -6244,7 +6244,7 @@
         <v>724</v>
       </c>
       <c r="B419" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -6252,7 +6252,7 @@
         <v>661</v>
       </c>
       <c r="B420" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -6260,7 +6260,7 @@
         <v>441</v>
       </c>
       <c r="B421" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
         <v>287</v>
       </c>
       <c r="B422" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -6276,7 +6276,7 @@
         <v>722</v>
       </c>
       <c r="B423" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
         <v>662</v>
       </c>
       <c r="B424" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
         <v>329</v>
       </c>
       <c r="B425" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -6300,7 +6300,7 @@
         <v>103</v>
       </c>
       <c r="B426" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +6308,7 @@
         <v>612</v>
       </c>
       <c r="B427" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -6316,7 +6316,7 @@
         <v>764</v>
       </c>
       <c r="B428" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>164</v>
       </c>
       <c r="B429" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -6332,7 +6332,7 @@
         <v>852</v>
       </c>
       <c r="B430" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -6340,7 +6340,7 @@
         <v>438</v>
       </c>
       <c r="B431" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -6348,7 +6348,7 @@
         <v>304</v>
       </c>
       <c r="B432" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +6356,7 @@
         <v>700</v>
       </c>
       <c r="B433" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -6364,7 +6364,7 @@
         <v>204</v>
       </c>
       <c r="B434" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -6372,7 +6372,7 @@
         <v>788</v>
       </c>
       <c r="B435" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>182</v>
       </c>
       <c r="B436" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +6388,7 @@
         <v>763</v>
       </c>
       <c r="B437" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +6396,7 @@
         <v>473</v>
       </c>
       <c r="B438" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -6404,7 +6404,7 @@
         <v>772</v>
       </c>
       <c r="B439" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -6412,7 +6412,7 @@
         <v>280</v>
       </c>
       <c r="B440" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -6420,7 +6420,7 @@
         <v>816</v>
       </c>
       <c r="B441" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +6428,7 @@
         <v>377</v>
       </c>
       <c r="B442" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -8332,7 +8332,7 @@
         <v>466</v>
       </c>
       <c r="B680" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -8340,7 +8340,7 @@
         <v>344</v>
       </c>
       <c r="B681" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -8348,7 +8348,7 @@
         <v>465</v>
       </c>
       <c r="B682" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -8356,7 +8356,7 @@
         <v>151</v>
       </c>
       <c r="B683" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -8364,7 +8364,7 @@
         <v>516</v>
       </c>
       <c r="B684" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -8372,7 +8372,7 @@
         <v>848</v>
       </c>
       <c r="B685" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -8380,7 +8380,7 @@
         <v>54</v>
       </c>
       <c r="B686" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -8388,7 +8388,7 @@
         <v>336</v>
       </c>
       <c r="B687" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>96</v>
       </c>
       <c r="B688" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -8404,7 +8404,7 @@
         <v>445</v>
       </c>
       <c r="B689" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -8412,7 +8412,7 @@
         <v>523</v>
       </c>
       <c r="B690" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -8420,7 +8420,7 @@
         <v>779</v>
       </c>
       <c r="B691" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -8428,7 +8428,7 @@
         <v>431</v>
       </c>
       <c r="B692" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -8436,7 +8436,7 @@
         <v>120</v>
       </c>
       <c r="B693" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -8444,7 +8444,7 @@
         <v>275</v>
       </c>
       <c r="B694" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -8452,7 +8452,7 @@
         <v>193</v>
       </c>
       <c r="B695" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>542</v>
       </c>
       <c r="B696" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,7 +8468,7 @@
         <v>370</v>
       </c>
       <c r="B697" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -8476,7 +8476,7 @@
         <v>496</v>
       </c>
       <c r="B698" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -8484,7 +8484,7 @@
         <v>609</v>
       </c>
       <c r="B699" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8492,7 +8492,7 @@
         <v>333</v>
       </c>
       <c r="B700" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -8500,7 +8500,7 @@
         <v>814</v>
       </c>
       <c r="B701" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -8508,7 +8508,7 @@
         <v>539</v>
       </c>
       <c r="B702" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -8516,7 +8516,7 @@
         <v>276</v>
       </c>
       <c r="B703" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -8524,7 +8524,7 @@
         <v>553</v>
       </c>
       <c r="B704" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -8532,7 +8532,7 @@
         <v>515</v>
       </c>
       <c r="B705" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -8540,7 +8540,7 @@
         <v>463</v>
       </c>
       <c r="B706" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -8548,7 +8548,7 @@
         <v>454</v>
       </c>
       <c r="B707" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -8556,7 +8556,7 @@
         <v>75</v>
       </c>
       <c r="B708" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -8564,7 +8564,7 @@
         <v>614</v>
       </c>
       <c r="B709" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -8572,7 +8572,7 @@
         <v>25</v>
       </c>
       <c r="B710" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -8580,7 +8580,7 @@
         <v>561</v>
       </c>
       <c r="B711" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -8588,7 +8588,7 @@
         <v>708</v>
       </c>
       <c r="B712" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -8596,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="B713" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -8604,7 +8604,7 @@
         <v>663</v>
       </c>
       <c r="B714" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -8612,7 +8612,7 @@
         <v>281</v>
       </c>
       <c r="B715" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -8620,7 +8620,7 @@
         <v>535</v>
       </c>
       <c r="B716" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -8628,7 +8628,7 @@
         <v>533</v>
       </c>
       <c r="B717" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,7 +8636,7 @@
         <v>833</v>
       </c>
       <c r="B718" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
         <v>428</v>
       </c>
       <c r="B719" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
@@ -8652,7 +8652,7 @@
         <v>102</v>
       </c>
       <c r="B720" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="B721" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
@@ -8668,7 +8668,7 @@
         <v>653</v>
       </c>
       <c r="B722" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
@@ -8676,7 +8676,7 @@
         <v>796</v>
       </c>
       <c r="B723" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -8684,7 +8684,7 @@
         <v>268</v>
       </c>
       <c r="B724" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -8692,7 +8692,7 @@
         <v>778</v>
       </c>
       <c r="B725" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -8700,7 +8700,7 @@
         <v>751</v>
       </c>
       <c r="B726" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -8708,7 +8708,7 @@
         <v>266</v>
       </c>
       <c r="B727" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -8716,7 +8716,7 @@
         <v>804</v>
       </c>
       <c r="B728" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
@@ -8724,7 +8724,7 @@
         <v>823</v>
       </c>
       <c r="B729" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
@@ -8732,7 +8732,7 @@
         <v>743</v>
       </c>
       <c r="B730" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
@@ -8740,7 +8740,7 @@
         <v>647</v>
       </c>
       <c r="B731" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
@@ -8748,7 +8748,7 @@
         <v>170</v>
       </c>
       <c r="B732" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -8756,7 +8756,7 @@
         <v>604</v>
       </c>
       <c r="B733" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -8764,7 +8764,7 @@
         <v>657</v>
       </c>
       <c r="B734" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -8772,7 +8772,7 @@
         <v>595</v>
       </c>
       <c r="B735" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
@@ -8780,7 +8780,7 @@
         <v>230</v>
       </c>
       <c r="B736" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -8788,7 +8788,7 @@
         <v>849</v>
       </c>
       <c r="B737" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
@@ -8796,7 +8796,7 @@
         <v>176</v>
       </c>
       <c r="B738" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
@@ -8804,7 +8804,7 @@
         <v>427</v>
       </c>
       <c r="B739" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
@@ -8812,7 +8812,7 @@
         <v>26</v>
       </c>
       <c r="B740" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>574</v>
       </c>
       <c r="B741" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
@@ -8828,7 +8828,7 @@
         <v>841</v>
       </c>
       <c r="B742" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B743" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
@@ -8844,7 +8844,7 @@
         <v>842</v>
       </c>
       <c r="B744" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
@@ -8852,7 +8852,7 @@
         <v>207</v>
       </c>
       <c r="B745" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
@@ -8860,7 +8860,7 @@
         <v>829</v>
       </c>
       <c r="B746" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
@@ -8868,7 +8868,7 @@
         <v>433</v>
       </c>
       <c r="B747" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
@@ -8876,7 +8876,7 @@
         <v>247</v>
       </c>
       <c r="B748" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
@@ -8884,7 +8884,7 @@
         <v>288</v>
       </c>
       <c r="B749" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
@@ -8892,7 +8892,7 @@
         <v>448</v>
       </c>
       <c r="B750" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
@@ -8900,7 +8900,7 @@
         <v>525</v>
       </c>
       <c r="B751" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
@@ -8908,7 +8908,7 @@
         <v>440</v>
       </c>
       <c r="B752" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
@@ -8916,7 +8916,7 @@
         <v>74</v>
       </c>
       <c r="B753" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>324</v>
       </c>
       <c r="B754" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
@@ -8932,7 +8932,7 @@
         <v>480</v>
       </c>
       <c r="B755" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
@@ -8940,7 +8940,7 @@
         <v>358</v>
       </c>
       <c r="B756" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
@@ -8948,7 +8948,7 @@
         <v>326</v>
       </c>
       <c r="B757" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
@@ -8956,7 +8956,7 @@
         <v>552</v>
       </c>
       <c r="B758" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
@@ -8964,7 +8964,7 @@
         <v>503</v>
       </c>
       <c r="B759" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
@@ -8972,7 +8972,7 @@
         <v>485</v>
       </c>
       <c r="B760" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
@@ -8980,7 +8980,7 @@
         <v>27</v>
       </c>
       <c r="B761" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
@@ -8988,7 +8988,7 @@
         <v>811</v>
       </c>
       <c r="B762" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
@@ -8996,7 +8996,7 @@
         <v>442</v>
       </c>
       <c r="B763" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -9004,7 +9004,7 @@
         <v>308</v>
       </c>
       <c r="B764" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
@@ -9052,7 +9052,7 @@
         <v>353</v>
       </c>
       <c r="B770" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
@@ -9060,7 +9060,7 @@
         <v>456</v>
       </c>
       <c r="B771" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
@@ -9068,7 +9068,7 @@
         <v>42</v>
       </c>
       <c r="B772" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
@@ -9076,7 +9076,7 @@
         <v>219</v>
       </c>
       <c r="B773" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
@@ -9084,7 +9084,7 @@
         <v>716</v>
       </c>
       <c r="B774" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
@@ -9092,7 +9092,7 @@
         <v>124</v>
       </c>
       <c r="B775" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -9100,7 +9100,7 @@
         <v>183</v>
       </c>
       <c r="B776" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -9108,7 +9108,7 @@
         <v>532</v>
       </c>
       <c r="B777" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
@@ -9116,7 +9116,7 @@
         <v>773</v>
       </c>
       <c r="B778" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -9124,7 +9124,7 @@
         <v>408</v>
       </c>
       <c r="B779" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -9132,7 +9132,7 @@
         <v>110</v>
       </c>
       <c r="B780" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
@@ -9140,7 +9140,7 @@
         <v>302</v>
       </c>
       <c r="B781" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -9148,7 +9148,7 @@
         <v>334</v>
       </c>
       <c r="B782" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -9156,7 +9156,7 @@
         <v>199</v>
       </c>
       <c r="B783" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
@@ -9164,7 +9164,7 @@
         <v>261</v>
       </c>
       <c r="B784" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -9172,7 +9172,7 @@
         <v>762</v>
       </c>
       <c r="B785" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
@@ -9180,7 +9180,7 @@
         <v>603</v>
       </c>
       <c r="B786" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
@@ -9188,7 +9188,7 @@
         <v>80</v>
       </c>
       <c r="B787" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
@@ -9196,7 +9196,7 @@
         <v>181</v>
       </c>
       <c r="B788" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -9204,7 +9204,7 @@
         <v>734</v>
       </c>
       <c r="B789" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -9212,7 +9212,7 @@
         <v>69</v>
       </c>
       <c r="B790" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
@@ -9220,7 +9220,7 @@
         <v>549</v>
       </c>
       <c r="B791" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
@@ -9228,7 +9228,7 @@
         <v>850</v>
       </c>
       <c r="B792" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
@@ -9236,7 +9236,7 @@
         <v>23</v>
       </c>
       <c r="B793" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
@@ -9244,7 +9244,7 @@
         <v>328</v>
       </c>
       <c r="B794" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
@@ -9252,7 +9252,7 @@
         <v>527</v>
       </c>
       <c r="B795" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
@@ -9260,7 +9260,7 @@
         <v>369</v>
       </c>
       <c r="B796" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
@@ -9268,7 +9268,7 @@
         <v>706</v>
       </c>
       <c r="B797" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
@@ -9276,7 +9276,7 @@
         <v>318</v>
       </c>
       <c r="B798" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>538</v>
       </c>
       <c r="B799" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
@@ -9292,7 +9292,7 @@
         <v>783</v>
       </c>
       <c r="B800" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
@@ -9300,7 +9300,7 @@
         <v>323</v>
       </c>
       <c r="B801" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
@@ -9308,7 +9308,7 @@
         <v>733</v>
       </c>
       <c r="B802" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
@@ -9316,7 +9316,7 @@
         <v>730</v>
       </c>
       <c r="B803" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
@@ -9324,7 +9324,7 @@
         <v>435</v>
       </c>
       <c r="B804" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
@@ -9332,7 +9332,7 @@
         <v>518</v>
       </c>
       <c r="B805" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
@@ -9340,7 +9340,7 @@
         <v>776</v>
       </c>
       <c r="B806" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
         <v>536</v>
       </c>
       <c r="B807" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
@@ -9356,7 +9356,7 @@
         <v>818</v>
       </c>
       <c r="B808" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
@@ -9364,7 +9364,7 @@
         <v>559</v>
       </c>
       <c r="B809" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
@@ -9372,7 +9372,7 @@
         <v>450</v>
       </c>
       <c r="B810" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
@@ -9380,7 +9380,7 @@
         <v>341</v>
       </c>
       <c r="B811" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
@@ -9388,7 +9388,7 @@
         <v>642</v>
       </c>
       <c r="B812" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
@@ -9396,7 +9396,7 @@
         <v>209</v>
       </c>
       <c r="B813" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
@@ -9404,7 +9404,7 @@
         <v>701</v>
       </c>
       <c r="B814" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
@@ -9412,7 +9412,7 @@
         <v>58</v>
       </c>
       <c r="B815" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
@@ -9420,7 +9420,7 @@
         <v>529</v>
       </c>
       <c r="B816" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
         <v>158</v>
       </c>
       <c r="B817" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
@@ -9436,7 +9436,7 @@
         <v>520</v>
       </c>
       <c r="B818" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
@@ -9444,7 +9444,7 @@
         <v>263</v>
       </c>
       <c r="B819" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
@@ -9452,7 +9452,7 @@
         <v>578</v>
       </c>
       <c r="B820" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
@@ -9460,7 +9460,7 @@
         <v>851</v>
       </c>
       <c r="B821" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
@@ -9468,7 +9468,7 @@
         <v>210</v>
       </c>
       <c r="B822" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
@@ -9476,7 +9476,7 @@
         <v>824</v>
       </c>
       <c r="B823" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
@@ -9564,7 +9564,7 @@
         <v>41</v>
       </c>
       <c r="B834" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
@@ -9572,7 +9572,7 @@
         <v>78</v>
       </c>
       <c r="B835" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
@@ -9580,7 +9580,7 @@
         <v>88</v>
       </c>
       <c r="B836" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
@@ -9588,7 +9588,7 @@
         <v>565</v>
       </c>
       <c r="B837" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
@@ -9596,7 +9596,7 @@
         <v>766</v>
       </c>
       <c r="B838" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
         <v>365</v>
       </c>
       <c r="B839" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
@@ -9612,7 +9612,7 @@
         <v>599</v>
       </c>
       <c r="B840" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
@@ -9620,7 +9620,7 @@
         <v>203</v>
       </c>
       <c r="B841" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
@@ -9628,7 +9628,7 @@
         <v>671</v>
       </c>
       <c r="B842" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
@@ -9636,7 +9636,7 @@
         <v>745</v>
       </c>
       <c r="B843" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
@@ -9644,7 +9644,7 @@
         <v>639</v>
       </c>
       <c r="B844" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
@@ -9652,7 +9652,7 @@
         <v>619</v>
       </c>
       <c r="B845" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
@@ -9660,7 +9660,7 @@
         <v>168</v>
       </c>
       <c r="B846" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
@@ -9668,7 +9668,7 @@
         <v>159</v>
       </c>
       <c r="B847" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
@@ -9676,7 +9676,7 @@
         <v>128</v>
       </c>
       <c r="B848" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
@@ -9684,7 +9684,7 @@
         <v>349</v>
       </c>
       <c r="B849" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
@@ -9692,7 +9692,7 @@
         <v>673</v>
       </c>
       <c r="B850" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>251</v>
       </c>
       <c r="B851" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>594</v>
       </c>
       <c r="B852" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
@@ -9716,7 +9716,7 @@
         <v>608</v>
       </c>
       <c r="B853" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
@@ -9724,7 +9724,7 @@
         <v>375</v>
       </c>
       <c r="B854" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
@@ -9732,7 +9732,7 @@
         <v>844</v>
       </c>
       <c r="B855" t="s">
-        <v>473</v>
+        <v>863</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
